--- a/downloaded_files/AERS213_Tutorial-35774.xlsx
+++ b/downloaded_files/AERS213_Tutorial-35774.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>AHMED MEDHAT MOHAMED NABIL KAMEL EMARA</x:t>
   </x:si>
   <x:si>
+    <x:t>4250166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل ابراهيم العجمى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Waaiel</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240059</x:t>
   </x:si>
   <x:si>
@@ -222,6 +231,15 @@
     <x:t>Loai Atef Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Algharieb</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240261</x:t>
   </x:si>
   <x:si>
@@ -256,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Sameh Mohamed Abdelfattah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمد فراج على محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Mohamed Farag Ali Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240381</x:t>
@@ -416,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -903,7 +930,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.455040162</x:v>
+        <x:v>45922.3852359954</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -935,7 +962,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.8725591435</x:v>
+        <x:v>45907.455040162</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +994,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4159935185</x:v>
+        <x:v>45912.8725591435</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +1026,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6663350694</x:v>
+        <x:v>45908.4159935185</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6649693287</x:v>
+        <x:v>45907.6663350694</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6649693287</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6845854514</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6699376968</x:v>
+        <x:v>45907.6845854514</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6699376968</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4162835648</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45908.4162835648</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648051273</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.6648051273</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.7783396991</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6954356482</x:v>
+        <x:v>45907.7783396991</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45907.6954356482</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45922.3910580208</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1779,102 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6700440625</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45916.9570266551</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS213_Tutorial-35774.xlsx
+++ b/downloaded_files/AERS213_Tutorial-35774.xlsx
@@ -930,7 +930,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45922.3852359954</x:v>
+        <x:v>45927.5221410069</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>

--- a/downloaded_files/AERS213_Tutorial-35774.xlsx
+++ b/downloaded_files/AERS213_Tutorial-35774.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Wael Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل فوزى سعد بكر ابو العز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Wael fawzi saad bakr aboelez</x:t>
   </x:si>
   <x:si>
     <x:t>1240021</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -994,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.8725591435</x:v>
+        <x:v>45928.9611408912</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1026,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4159935185</x:v>
+        <x:v>45912.8725591435</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1058,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6663350694</x:v>
+        <x:v>45908.4159935185</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1090,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6649693287</x:v>
+        <x:v>45907.6663350694</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1122,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6649693287</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6845854514</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6699376968</x:v>
+        <x:v>45907.6845854514</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6699376968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4162835648</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45908.4162835648</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648051273</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.6648051273</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.7783396991</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6954356482</x:v>
+        <x:v>45907.7783396991</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45907.6954356482</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.3910580208</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45922.3910580208</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6700440625</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Fundamentals of Thermodynamics (AERS213) Location : [40310]40310-55-ملحق طيران Time : Wednesday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/AERS213_Tutorial-35774.xlsx
+++ b/downloaded_files/AERS213_Tutorial-35774.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -247,6 +247,12 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Algharieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد شعبان محمد صالح</x:t>
   </x:si>
   <x:si>
     <x:t>1240261</x:t>
@@ -452,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1607,11 +1613,9 @@
       <x:c r="C26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45929.5759415509</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,16 +1638,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,16 +1670,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,16 +1702,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,16 +1734,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,16 +1766,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,16 +1798,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,16 +1830,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,16 +1862,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6700440625</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1890,16 +1894,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1920,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS213_Tutorial-35774.xlsx
+++ b/downloaded_files/AERS213_Tutorial-35774.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>ahmed samer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عبدالمحسن عبدالمقصود عبدالجواد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed abdelmohsen</x:t>
   </x:si>
   <x:si>
     <x:t>1240285</x:t>
@@ -458,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -913,7 +922,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6663296644</x:v>
+        <x:v>45930.3362331019</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -945,7 +954,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.5221410069</x:v>
+        <x:v>45907.6663296644</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -977,7 +986,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.455040162</x:v>
+        <x:v>45927.5221410069</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1009,7 +1018,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45928.9611408912</x:v>
+        <x:v>45907.455040162</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1041,7 +1050,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.8725591435</x:v>
+        <x:v>45928.9611408912</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4159935185</x:v>
+        <x:v>45912.8725591435</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6663350694</x:v>
+        <x:v>45908.4159935185</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6649693287</x:v>
+        <x:v>45907.6663350694</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6649693287</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6845854514</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6699376968</x:v>
+        <x:v>45907.6845854514</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6699376968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4162835648</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45908.4162835648</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648051273</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.6648051273</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.7783396991</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1521,7 +1530,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6954356482</x:v>
+        <x:v>45907.7783396991</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1553,7 +1562,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45907.6954356482</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1585,7 +1594,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45922.3910580208</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1613,9 +1622,11 @@
       <x:c r="C26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45929.5759415509</x:v>
+        <x:v>45922.3910580208</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,16 +1649,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45929.5759415509</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1711,7 +1720,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,7 +1752,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,7 +1784,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1816,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6700440625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1961,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS213_Tutorial-35774.xlsx
+++ b/downloaded_files/AERS213_Tutorial-35774.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Algharieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايمن نبيل ابراهيم حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ayman Nabil Ibrahim Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4240046</x:t>
@@ -467,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +776,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1654,9 +1663,11 @@
       <x:c r="C27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45929.5759415509</x:v>
+        <x:v>45934.8680003472</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,16 +1690,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45929.5759415509</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1720,7 +1729,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1752,7 +1761,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1784,7 +1793,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1816,7 +1825,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1848,7 +1857,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1880,7 +1889,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1912,7 +1921,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1944,7 +1953,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6700440625</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1976,7 +1985,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1993,6 +2002,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS213_Tutorial-35774.xlsx
+++ b/downloaded_files/AERS213_Tutorial-35774.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -270,7 +270,10 @@
     <x:t>4240046</x:t>
   </x:si>
   <x:si>
-    <x:t>محمد شعبان محمد صالح</x:t>
+    <x:t>محمد شعبان محمد صالح حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed shabaan mohamed saleh hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240261</x:t>
@@ -1695,7 +1698,9 @@
       <x:c r="C28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="E28" s="3">
         <x:v>45929.5759415509</x:v>
       </x:c>
@@ -1720,13 +1725,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45907.6651458333</x:v>
@@ -1752,13 +1757,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45907.6648720718</x:v>
@@ -1784,13 +1789,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45907.4159801273</x:v>
@@ -1816,13 +1821,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45907.4155421296</x:v>
@@ -1848,13 +1853,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45922.3872527431</x:v>
@@ -1880,13 +1885,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45907.6648476505</x:v>
@@ -1912,13 +1917,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45907.664794213</x:v>
@@ -1944,13 +1949,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45907.6700440625</x:v>
@@ -1976,13 +1981,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45916.9570266551</x:v>
@@ -2008,13 +2013,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45907.6658591782</x:v>

--- a/downloaded_files/AERS213_Tutorial-35774.xlsx
+++ b/downloaded_files/AERS213_Tutorial-35774.xlsx
@@ -219,7 +219,7 @@
     <x:t>على حسن على حسن على</x:t>
   </x:si>
   <x:si>
-    <x:t>Ali Hassan Ali Hassan</x:t>
+    <x:t>Ali Hassan Ali Hassan Ali</x:t>
   </x:si>
   <x:si>
     <x:t>4240029</x:t>
@@ -327,7 +327,7 @@
     <x:t>مينا وجيه خليل شاكر اسحاق عبد المسيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmaish</x:t>
+    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmasih</x:t>
   </x:si>
   <x:si>
     <x:t>1240385</x:t>
@@ -345,7 +345,7 @@
     <x:t>هنا ايمن عبداللطيف عبدالحميد احمد سلام</x:t>
   </x:si>
   <x:si>
-    <x:t>Hana Ayman Abdellatif</x:t>
+    <x:t>Hana Ayman Abdellatif Abdelhamed Ahmed Sallam</x:t>
   </x:si>
   <x:si>
     <x:t>4250198</x:t>

--- a/downloaded_files/AERS213_Tutorial-35774.xlsx
+++ b/downloaded_files/AERS213_Tutorial-35774.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -247,15 +247,6 @@
   </x:si>
   <x:si>
     <x:t>Loai Atef Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Algharieb</x:t>
   </x:si>
   <x:si>
     <x:t>4250175</x:t>
@@ -479,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1638,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45922.3910580208</x:v>
+        <x:v>45934.8680003472</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45934.8680003472</x:v>
+        <x:v>45929.5759415509</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45929.5759415509</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6700440625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,38 +1998,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.6658591782</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
